--- a/vaadin-spreadsheet-flow-parent/spreadsheet-charts-integration/src/test/resources/test_sheets/TypeSample - Scatter.xlsx
+++ b/vaadin-spreadsheet-flow-parent/spreadsheet-charts-integration/src/test/resources/test_sheets/TypeSample - Scatter.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="460" windowWidth="25120" windowHeight="15340"/>
+    <workbookView xWindow="10240" yWindow="2840" windowWidth="25120" windowHeight="15340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -270,11 +270,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2010036768"/>
-        <c:axId val="-2067731600"/>
+        <c:axId val="-2121867008"/>
+        <c:axId val="-2118311728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2010036768"/>
+        <c:axId val="-2121867008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -283,12 +283,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2067731600"/>
+        <c:crossAx val="-2118311728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2067731600"/>
+        <c:axId val="-2118311728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -299,7 +299,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2010036768"/>
+        <c:crossAx val="-2121867008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -515,11 +515,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2030851888"/>
-        <c:axId val="-1985463824"/>
+        <c:axId val="1811266576"/>
+        <c:axId val="-2084614624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2030851888"/>
+        <c:axId val="1811266576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -528,12 +528,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1985463824"/>
+        <c:crossAx val="-2084614624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1985463824"/>
+        <c:axId val="-2084614624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -544,7 +544,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2030851888"/>
+        <c:crossAx val="1811266576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -749,11 +749,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1988013360"/>
-        <c:axId val="-2011989520"/>
+        <c:axId val="2137055552"/>
+        <c:axId val="-2086938928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1988013360"/>
+        <c:axId val="2137055552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -762,12 +762,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2011989520"/>
+        <c:crossAx val="-2086938928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2011989520"/>
+        <c:axId val="-2086938928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -778,7 +778,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1988013360"/>
+        <c:crossAx val="2137055552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -979,11 +979,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2009172224"/>
-        <c:axId val="-2009860752"/>
+        <c:axId val="1794452000"/>
+        <c:axId val="1794237872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2009172224"/>
+        <c:axId val="1794452000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -992,12 +992,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2009860752"/>
+        <c:crossAx val="1794237872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2009860752"/>
+        <c:axId val="1794237872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1008,7 +1008,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2009172224"/>
+        <c:crossAx val="1794452000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1224,11 +1224,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1983279200"/>
-        <c:axId val="-1983152352"/>
+        <c:axId val="1793134784"/>
+        <c:axId val="1793133760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1983279200"/>
+        <c:axId val="1793134784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1237,12 +1237,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1983152352"/>
+        <c:crossAx val="1793133760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1983152352"/>
+        <c:axId val="1793133760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1253,7 +1253,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1983279200"/>
+        <c:crossAx val="1793134784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1340,7 +1340,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:prstDash val="dashDot"/>
+              <a:prstDash val="lgDashDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1362,48 +1362,48 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$B$5</c:f>
+              <c:f>Sheet1!$A$1:$E$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>200.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>300.0</c:v>
-                </c:pt>
                 <c:pt idx="2">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>800.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>500.0</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>600.0</c:v>
+                  <c:v>99.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$A$1:$A$5</c:f>
+              <c:f>Sheet1!$A$2:$E$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>230.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>230.0</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>400.0</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1600.0</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1418,11 +1418,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1798970144"/>
-        <c:axId val="-1986852944"/>
+        <c:axId val="1787571808"/>
+        <c:axId val="1787490416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1798970144"/>
+        <c:axId val="1787571808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1479,12 +1479,12 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1986852944"/>
+        <c:crossAx val="1787490416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1986852944"/>
+        <c:axId val="1787490416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1541,7 +1541,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1798970144"/>
+        <c:crossAx val="1787571808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2629,7 +2629,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
